--- a/Regression/Inbound/Inbound_Enrollments_campaign_test/b_files_for_testing_02/inbound_data_file_old.xlsx
+++ b/Regression/Inbound/Inbound_Enrollments_campaign_test/b_files_for_testing_02/inbound_data_file_old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\Inbound\Inbound_Enrollments_campaign_test\b_files_for_testing_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9D642-E6D3-406F-9AEE-C1C0BFF6E66E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B2CEB8-7E46-4A01-8CB7-B6067A36BA2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>ts</t>
   </si>
@@ -169,15 +169,6 @@
   </si>
   <si>
     <t>no_email_mark</t>
-  </si>
-  <si>
-    <t>DanielPowers@testnrg.com</t>
-  </si>
-  <si>
-    <t>JohnNavarro@testnrg.com</t>
-  </si>
-  <si>
-    <t>MariaShepherd@testnrg.com</t>
   </si>
   <si>
     <t>NRR</t>
@@ -1085,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,10 +1086,10 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+    <col min="12" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="18" width="4.7109375" customWidth="1"/>
     <col min="19" max="19" width="42.28515625" customWidth="1"/>
     <col min="20" max="20" width="25.140625" customWidth="1"/>
   </cols>
@@ -1218,7 +1209,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -1227,13 +1218,13 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N2">
         <v>8031</v>
@@ -1242,25 +1233,22 @@
         <v>566</v>
       </c>
       <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
         <v>55</v>
       </c>
-      <c r="S2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" t="s">
-        <v>58</v>
-      </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AE2" t="s">
         <v>46</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1280,7 +1268,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -1289,13 +1277,13 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>8031</v>
@@ -1304,25 +1292,22 @@
         <v>566</v>
       </c>
       <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
         <v>55</v>
       </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AE3" t="s">
         <v>30</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -1342,7 +1327,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1351,13 +1336,13 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>8031</v>
@@ -1369,22 +1354,19 @@
         <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
         <v>45</v>
       </c>
       <c r="AE4" t="s">
         <v>46</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1404,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1413,13 +1395,13 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>8031</v>
@@ -1431,13 +1413,13 @@
         <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
         <v>45</v>
@@ -1463,7 +1445,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
@@ -1472,13 +1454,13 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>8031</v>
@@ -1487,19 +1469,19 @@
         <v>566</v>
       </c>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AE6" t="s">
         <v>46</v>
@@ -1522,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1531,13 +1513,13 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>8031</v>
@@ -1546,19 +1528,19 @@
         <v>566</v>
       </c>
       <c r="P7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AE7" t="s">
         <v>30</v>
